--- a/Skor.xlsx
+++ b/Skor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>1 (N)</t>
   </si>
@@ -66,7 +66,31 @@
     <t>Sigma</t>
   </si>
   <si>
-    <t>(yang juara terakhir dapat cinta abadi dari Mulpin)</t>
+    <t>4 (C)</t>
+  </si>
+  <si>
+    <t>5 (G)</t>
+  </si>
+  <si>
+    <t>6 (A)</t>
+  </si>
+  <si>
+    <t>7 (N)</t>
+  </si>
+  <si>
+    <t>8 (A)</t>
+  </si>
+  <si>
+    <t>9 (G)</t>
+  </si>
+  <si>
+    <t>10 (A)</t>
+  </si>
+  <si>
+    <t>11 (C)</t>
+  </si>
+  <si>
+    <t>12 (N)</t>
   </si>
 </sst>
 </file>
@@ -418,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,9 +453,13 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -444,32 +472,32 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
       </c>
       <c r="N1" t="s">
         <v>14</v>
@@ -572,11 +600,6 @@
       <c r="N12">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Skor.xlsx
+++ b/Skor.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,18 +507,33 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
       <c r="N2">
         <f>SUM(B2:M2)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
       <c r="N3">
         <f t="shared" ref="N3:N12" si="0">SUM(B3:M3)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -561,18 +576,27 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">

--- a/Skor.xlsx
+++ b/Skor.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -518,7 +518,7 @@
       </c>
       <c r="N2">
         <f>SUM(B2:M2)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -540,9 +540,12 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">

--- a/Skor.xlsx
+++ b/Skor.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +516,9 @@
       <c r="D2">
         <v>7</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="N2">
         <f>SUM(B2:M2)</f>
         <v>18</v>
@@ -531,9 +534,15 @@
       <c r="C3">
         <v>7</v>
       </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
       <c r="N3">
         <f t="shared" ref="N3:N12" si="0">SUM(B3:M3)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -543,9 +552,18 @@
       <c r="B4">
         <v>4</v>
       </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -570,9 +588,15 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -582,9 +606,12 @@
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -597,9 +624,12 @@
       <c r="C9">
         <v>6</v>
       </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">

--- a/Skor.xlsx
+++ b/Skor.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +588,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
       <c r="I7">
         <v>6</v>
       </c>
@@ -596,7 +599,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">

--- a/Skor.xlsx
+++ b/Skor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>1 (N)</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>12 (N)</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,12 +519,21 @@
       <c r="D2">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="N2">
         <f>SUM(B2:M2)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -534,15 +546,24 @@
       <c r="C3">
         <v>7</v>
       </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
       <c r="H3">
         <v>7</v>
       </c>
       <c r="I3">
         <v>6</v>
       </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
       <c r="N3">
         <f t="shared" ref="N3:N12" si="0">SUM(B3:M3)</f>
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -552,6 +573,9 @@
       <c r="B4">
         <v>4</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>7</v>
       </c>
@@ -597,9 +621,12 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -609,12 +636,24 @@
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="I8">
         <v>3</v>
       </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
